--- a/config_12.08/fish3d_use_config.xlsx
+++ b/config_12.08/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +202,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -217,6 +223,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2146,6 +2161,99 @@
         <v>59</v>
       </c>
     </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8">
+        <v>13</v>
+      </c>
+      <c r="C113" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="9">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8">
+        <v>14</v>
+      </c>
+      <c r="C114" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8">
+        <v>15</v>
+      </c>
+      <c r="C115" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="9">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8">
+        <v>16</v>
+      </c>
+      <c r="C116" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8">
+        <v>17</v>
+      </c>
+      <c r="C117" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8">
+        <v>18</v>
+      </c>
+      <c r="C118" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="9">
+        <v>58</v>
+      </c>
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="9">
+        <v>119</v>
+      </c>
+      <c r="B120" s="9">
+        <v>58</v>
+      </c>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="9">
+        <v>58</v>
+      </c>
+      <c r="C121" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/fish3d_use_config.xlsx
+++ b/config_12.08/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,12 +150,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -202,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -213,7 +207,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -222,16 +225,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,14 +1051,14 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="11.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1796,7 +1796,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1970,7 +1970,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1985,7 +1985,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -2000,7 +2000,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2015,7 +2015,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2030,7 +2030,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2045,7 +2045,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2053,206 +2053,158 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="7">
         <v>13</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="7">
         <v>14</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="7">
         <v>15</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="7">
         <v>16</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="7">
         <v>17</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="7">
         <v>18</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
-        <v>58</v>
-      </c>
-      <c r="C108" s="4"/>
+      <c r="B108" s="8">
+        <v>60</v>
+      </c>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
-        <v>58</v>
-      </c>
-      <c r="C109" s="4"/>
+      <c r="B109" s="8">
+        <v>60</v>
+      </c>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
-        <v>58</v>
-      </c>
-      <c r="C110" s="4"/>
+      <c r="B110" s="8">
+        <v>60</v>
+      </c>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="9">
-        <v>112</v>
-      </c>
-      <c r="B113" s="8">
-        <v>13</v>
-      </c>
-      <c r="C113" s="10">
-        <v>9</v>
-      </c>
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="9">
-        <v>113</v>
-      </c>
-      <c r="B114" s="8">
-        <v>14</v>
-      </c>
-      <c r="C114" s="10">
-        <v>9</v>
-      </c>
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="9">
-        <v>114</v>
-      </c>
-      <c r="B115" s="8">
-        <v>15</v>
-      </c>
-      <c r="C115" s="10">
-        <v>9</v>
-      </c>
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="9">
-        <v>115</v>
-      </c>
-      <c r="B116" s="8">
-        <v>16</v>
-      </c>
-      <c r="C116" s="10">
-        <v>9</v>
-      </c>
+      <c r="A116" s="10"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="9">
-        <v>116</v>
-      </c>
-      <c r="B117" s="8">
-        <v>17</v>
-      </c>
-      <c r="C117" s="10">
-        <v>9</v>
-      </c>
+      <c r="A117" s="10"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="9">
-        <v>117</v>
-      </c>
-      <c r="B118" s="8">
-        <v>18</v>
-      </c>
-      <c r="C118" s="10">
-        <v>9</v>
-      </c>
+      <c r="A118" s="10"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="9">
-        <v>118</v>
-      </c>
-      <c r="B119" s="9">
-        <v>58</v>
-      </c>
-      <c r="C119" s="10"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="12"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="9">
-        <v>119</v>
-      </c>
-      <c r="B120" s="9">
-        <v>58</v>
-      </c>
-      <c r="C120" s="10"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="12"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="9">
-        <v>120</v>
-      </c>
-      <c r="B121" s="9">
-        <v>58</v>
-      </c>
-      <c r="C121" s="10"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_12.08/fish3d_use_config.xlsx
+++ b/config_12.08/fish3d_use_config.xlsx
@@ -196,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -223,15 +223,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1042,7 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2123,7 +2114,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C108" s="9"/>
     </row>
@@ -2132,7 +2123,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C109" s="9"/>
     </row>
@@ -2141,7 +2132,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C110" s="9"/>
     </row>
@@ -2162,49 +2153,97 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7">
+        <v>13</v>
+      </c>
+      <c r="C113" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7">
+        <v>14</v>
+      </c>
+      <c r="C114" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7">
+        <v>15</v>
+      </c>
+      <c r="C115" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7">
+        <v>16</v>
+      </c>
+      <c r="C116" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7">
+        <v>17</v>
+      </c>
+      <c r="C117" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7">
+        <v>18</v>
+      </c>
+      <c r="C118" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="12"/>
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8">
+        <v>60</v>
+      </c>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="12"/>
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8">
+        <v>60</v>
+      </c>
+      <c r="C120" s="9"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="12"/>
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8">
+        <v>60</v>
+      </c>
+      <c r="C121" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
